--- a/FCUCourse-main/FCUCourse-main/搜尋/data.xlsx
+++ b/FCUCourse-main/FCUCourse-main/搜尋/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amber\Desktop\14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amber\Desktop\FCUCourse-main\FCUCourse-main\搜尋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA11C05-BF10-4797-87B9-D929241C4918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A31F8E8-D552-4973-B755-70CE68716E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{BB6F39E0-AA97-4CA3-9E7A-9C6A45E430DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>英文</t>
   </si>
@@ -227,6 +227,66 @@
   </si>
   <si>
     <t>10:10~11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:10~9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:10~10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>離散數學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微積分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資電102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資電103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用程式寫密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是離散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危機分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D946DA-8766-4015-BEEE-2E90985AE49C}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1005,43 +1065,109 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>60</v>
+      </c>
+      <c r="K14" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
